--- a/Kola_bay_Mussel_dynamics/R_calc_Kola_dynamics/Data/Temperature_KM.xlsx
+++ b/Kola_bay_Mussel_dynamics/R_calc_Kola_dynamics/Data/Temperature_KM.xlsx
@@ -1,49 +1,411 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>Year</t>
+    <t>year</t>
   </si>
   <si>
-    <t>Temp</t>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>temp_lag5</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -51,24 +413,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -117,7 +765,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -152,7 +800,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,758 +1003,1093 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C11:C12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="3" max="3" width="10.8518518518519" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
+        <v>1925</v>
+      </c>
+      <c r="B2">
+        <v>4.07</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1926</v>
+      </c>
+      <c r="B3">
+        <v>3.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1927</v>
+      </c>
+      <c r="B4">
+        <v>3.76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1928</v>
+      </c>
+      <c r="B5">
+        <v>3.8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1929</v>
+      </c>
+      <c r="B6">
+        <v>3.61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>1930</v>
       </c>
-      <c r="B2">
+      <c r="B7">
         <v>4.37</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C7">
+        <v>3.748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>1931</v>
       </c>
-      <c r="B3">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B8">
+        <v>4.1</v>
+      </c>
+      <c r="C8">
+        <v>3.808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>1932</v>
       </c>
-      <c r="B4">
+      <c r="B9">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C9">
+        <v>3.928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>1933</v>
       </c>
-      <c r="B5">
+      <c r="B10">
         <v>4.29</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C10">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
         <v>1934</v>
       </c>
-      <c r="B6">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B11">
+        <v>4.39</v>
+      </c>
+      <c r="C11">
+        <v>4.006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>1935</v>
       </c>
-      <c r="B7">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B12">
+        <v>4.35</v>
+      </c>
+      <c r="C12">
+        <v>4.162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
         <v>1936</v>
       </c>
-      <c r="B8">
-        <v>4.0599999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B13">
+        <v>4.06</v>
+      </c>
+      <c r="C13">
+        <v>4.158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
         <v>1937</v>
       </c>
-      <c r="B9">
+      <c r="B14">
         <v>4.53</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C14">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
         <v>1938</v>
       </c>
-      <c r="B10">
+      <c r="B15">
         <v>4.78</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C15">
+        <v>4.324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
         <v>1939</v>
       </c>
-      <c r="B11">
-        <v>4.6900000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B16">
+        <v>4.69</v>
+      </c>
+      <c r="C16">
+        <v>4.422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
         <v>1940</v>
       </c>
-      <c r="B12">
+      <c r="B17">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C17">
+        <v>4.482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
         <v>1941</v>
       </c>
-      <c r="B13">
+      <c r="B18">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C18">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
         <v>1942</v>
       </c>
-      <c r="B14">
+      <c r="B19">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C19">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
         <v>1943</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>4.34</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C20">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
         <v>1944</v>
       </c>
-      <c r="B16">
-        <v>4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B21">
+        <v>4.23</v>
+      </c>
+      <c r="C21">
+        <v>3.922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
         <v>1945</v>
       </c>
-      <c r="B17">
-        <v>4.0199999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B22">
+        <v>4.02</v>
+      </c>
+      <c r="C22">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
         <v>1946</v>
       </c>
-      <c r="B18">
+      <c r="B23">
         <v>4.03</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C23">
+        <v>3.886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
         <v>1947</v>
       </c>
-      <c r="B19">
-        <v>4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B24">
+        <v>4.23</v>
+      </c>
+      <c r="C24">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
         <v>1948</v>
       </c>
-      <c r="B20">
+      <c r="B25">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C25">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
         <v>1949</v>
       </c>
-      <c r="B21">
+      <c r="B26">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C26">
+        <v>4.052</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
         <v>1950</v>
       </c>
-      <c r="B22">
-        <v>4.7300000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B27">
+        <v>4.73</v>
+      </c>
+      <c r="C27">
+        <v>4.056</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
         <v>1951</v>
       </c>
-      <c r="B23">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B28">
+        <v>4.44</v>
+      </c>
+      <c r="C28">
+        <v>4.198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
         <v>1952</v>
       </c>
-      <c r="B24">
+      <c r="B29">
         <v>4.17</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="C29">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
         <v>1953</v>
       </c>
-      <c r="B25">
+      <c r="B30">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="C30">
+        <v>4.268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
         <v>1954</v>
       </c>
-      <c r="B26">
+      <c r="B31">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="C31">
+        <v>4.276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>1955</v>
       </c>
-      <c r="B27">
+      <c r="B32">
         <v>4.22</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="C32">
+        <v>4.376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>1956</v>
       </c>
-      <c r="B28">
+      <c r="B33">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="C33">
+        <v>4.274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
         <v>1957</v>
       </c>
-      <c r="B29">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B34">
+        <v>4.1</v>
+      </c>
+      <c r="C34">
+        <v>4.094</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
         <v>1958</v>
       </c>
-      <c r="B30">
+      <c r="B35">
         <v>3.61</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="C35">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
         <v>1959</v>
       </c>
-      <c r="B31">
+      <c r="B36">
         <v>4.37</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="C36">
+        <v>4.044</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
         <v>1960</v>
       </c>
-      <c r="B32">
+      <c r="B37">
         <v>4.37</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="C37">
+        <v>3.968</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
         <v>1961</v>
       </c>
-      <c r="B33">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B38">
+        <v>4.1</v>
+      </c>
+      <c r="C38">
+        <v>3.998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
         <v>1962</v>
       </c>
-      <c r="B34">
+      <c r="B39">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="C39">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
         <v>1963</v>
       </c>
-      <c r="B35">
+      <c r="B40">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="C40">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
         <v>1964</v>
       </c>
-      <c r="B36">
+      <c r="B41">
         <v>4.08</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="C41">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
         <v>1965</v>
       </c>
-      <c r="B37">
+      <c r="B42">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="C42">
+        <v>4.002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
         <v>1966</v>
       </c>
-      <c r="B38">
+      <c r="B43">
         <v>2.83</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="C43">
+        <v>3.886</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
         <v>1967</v>
       </c>
-      <c r="B39">
+      <c r="B44">
         <v>3.84</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="C44">
+        <v>3.632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
         <v>1968</v>
       </c>
-      <c r="B40">
+      <c r="B45">
         <v>3.61</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="C45">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
         <v>1969</v>
       </c>
-      <c r="B41">
+      <c r="B46">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="C46">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
         <v>1970</v>
       </c>
-      <c r="B42">
+      <c r="B47">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="C47">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
         <v>1971</v>
       </c>
-      <c r="B43">
+      <c r="B48">
         <v>3.52</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="C48">
+        <v>3.614</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
         <v>1972</v>
       </c>
-      <c r="B44">
+      <c r="B49">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="C49">
+        <v>3.752</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
         <v>1973</v>
       </c>
-      <c r="B45">
+      <c r="B50">
         <v>4.38</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="C50">
+        <v>3.794</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
         <v>1974</v>
       </c>
-      <c r="B46">
+      <c r="B51">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="C51">
+        <v>3.948</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
         <v>1975</v>
       </c>
-      <c r="B47">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="B52">
+        <v>4.39</v>
+      </c>
+      <c r="C52">
+        <v>4.018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
         <v>1976</v>
       </c>
-      <c r="B48">
-        <v>4.1100000000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="B53">
+        <v>4.11</v>
+      </c>
+      <c r="C53">
+        <v>4.064</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
         <v>1977</v>
       </c>
-      <c r="B49">
+      <c r="B54">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="C54">
+        <v>4.182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
         <v>1978</v>
       </c>
-      <c r="B50">
+      <c r="B55">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="C55">
+        <v>4.088</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
         <v>1979</v>
       </c>
-      <c r="B51">
+      <c r="B56">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="C56">
+        <v>3.816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
         <v>1980</v>
       </c>
-      <c r="B52">
+      <c r="B57">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="C57">
+        <v>3.598</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
         <v>1981</v>
       </c>
-      <c r="B53">
+      <c r="B58">
         <v>3.03</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="C58">
+        <v>3.446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
         <v>1982</v>
       </c>
-      <c r="B54">
+      <c r="B59">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="C59">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
         <v>1983</v>
       </c>
-      <c r="B55">
+      <c r="B60">
         <v>4.54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="C60">
+        <v>3.246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
         <v>1984</v>
       </c>
-      <c r="B56">
+      <c r="B61">
         <v>4.08</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="C61">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
         <v>1985</v>
       </c>
-      <c r="B57">
+      <c r="B62">
         <v>3.68</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="C62">
+        <v>3.788</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
         <v>1986</v>
       </c>
-      <c r="B58">
+      <c r="B63">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="C63">
+        <v>3.798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
         <v>1987</v>
       </c>
-      <c r="B59">
+      <c r="B64">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="C64">
+        <v>3.922</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
         <v>1988</v>
       </c>
-      <c r="B60">
+      <c r="B65">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="C65">
+        <v>3.876</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
         <v>1989</v>
       </c>
-      <c r="B61">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="B66">
+        <v>4.44</v>
+      </c>
+      <c r="C66">
+        <v>3.718</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
         <v>1990</v>
       </c>
-      <c r="B62">
+      <c r="B67">
         <v>4.57</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="C67">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
         <v>1991</v>
       </c>
-      <c r="B63">
+      <c r="B68">
         <v>4.51</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="C68">
+        <v>3.968</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
         <v>1992</v>
       </c>
-      <c r="B64">
-        <v>4.5599999999999996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="B69">
+        <v>4.56</v>
+      </c>
+      <c r="C69">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
         <v>1993</v>
       </c>
-      <c r="B65">
+      <c r="B70">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="C70">
+        <v>4.366</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
         <v>1994</v>
       </c>
-      <c r="B66">
+      <c r="B71">
         <v>3.84</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="C71">
+        <v>4.426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
         <v>1995</v>
       </c>
-      <c r="B67">
+      <c r="B72">
         <v>4.33</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="C72">
+        <v>4.306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
         <v>1996</v>
       </c>
-      <c r="B68">
+      <c r="B73">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="C73">
+        <v>4.258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
         <v>1997</v>
       </c>
-      <c r="B69">
+      <c r="B74">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="C74">
+        <v>4.106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
         <v>1998</v>
       </c>
-      <c r="B70">
+      <c r="B75">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="C75">
+        <v>3.904</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
         <v>1999</v>
       </c>
-      <c r="B71">
-        <v>4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="B76">
+        <v>4.23</v>
+      </c>
+      <c r="C76">
+        <v>3.822</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
         <v>2000</v>
       </c>
-      <c r="B72">
+      <c r="B77">
         <v>4.63</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="C77">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
         <v>2001</v>
       </c>
-      <c r="B73">
-        <v>4.4800000000000004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="B78">
+        <v>4.48</v>
+      </c>
+      <c r="C78">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
         <v>2002</v>
       </c>
-      <c r="B74">
+      <c r="B79">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="C79">
+        <v>4.106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
         <v>2003</v>
       </c>
-      <c r="B75">
-        <v>4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="B80">
+        <v>4.15</v>
+      </c>
+      <c r="C80">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
         <v>2004</v>
       </c>
-      <c r="B76">
+      <c r="B81">
         <v>4.79</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="C81">
+        <v>4.382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
         <v>2005</v>
       </c>
-      <c r="B77">
+      <c r="B82">
         <v>4.82</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="C82">
+        <v>4.494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
         <v>2006</v>
       </c>
-      <c r="B78">
+      <c r="B83">
         <v>5.08</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="C83">
+        <v>4.532</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
         <v>2007</v>
       </c>
-      <c r="B79">
-        <v>4.9400000000000004</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="B84">
+        <v>4.94</v>
+      </c>
+      <c r="C84">
+        <v>4.652</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
         <v>2008</v>
       </c>
-      <c r="B80">
-        <v>4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="B85">
+        <v>4.64</v>
+      </c>
+      <c r="C85">
+        <v>4.756</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
         <v>2009</v>
       </c>
-      <c r="B81">
-        <v>4.6900000000000004</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="B86">
+        <v>4.69</v>
+      </c>
+      <c r="C86">
+        <v>4.854</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
         <v>2010</v>
       </c>
-      <c r="B82">
+      <c r="B87">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="C87">
+        <v>4.834</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
         <v>2011</v>
       </c>
-      <c r="B83">
+      <c r="B88">
         <v>4.37</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="C88">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
         <v>2012</v>
       </c>
-      <c r="B84">
+      <c r="B89">
         <v>5.36</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="C89">
+        <v>4.678</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
         <v>2013</v>
       </c>
-      <c r="B85">
+      <c r="B90">
         <v>4.87</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="C90">
+        <v>4.762</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
         <v>2014</v>
       </c>
-      <c r="B86">
+      <c r="B91">
         <v>4.74</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="C91">
+        <v>4.808</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
         <v>2015</v>
       </c>
-      <c r="B87">
+      <c r="B92">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="C92">
+        <v>4.818</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
         <v>2016</v>
       </c>
-      <c r="B88">
+      <c r="B93">
         <v>5.32</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="C93">
+        <v>4.868</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
         <v>2017</v>
       </c>
-      <c r="B89">
+      <c r="B94">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="C94">
+        <v>5.058</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
         <v>2018</v>
       </c>
-      <c r="B90">
+      <c r="B95">
         <v>5.12</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="C95">
+        <v>5.016</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
         <v>2019</v>
       </c>
-      <c r="B91">
+      <c r="B96">
         <v>4.63</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="C96">
+        <v>5.066</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
         <v>2020</v>
       </c>
-      <c r="B92">
-        <v>4.5599999999999996</v>
+      <c r="B97">
+        <v>4.56</v>
+      </c>
+      <c r="C97">
+        <v>5.044</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Kola_bay_Mussel_dynamics/R_calc_Kola_dynamics/Data/Temperature_KM.xlsx
+++ b/Kola_bay_Mussel_dynamics/R_calc_Kola_dynamics/Data/Temperature_KM.xlsx
@@ -1,28 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -44,368 +31,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -413,310 +57,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -765,7 +123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,7 +158,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1003,24 +361,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1925</v>
       </c>
@@ -1042,7 +400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1926</v>
       </c>
@@ -1053,7 +411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1927</v>
       </c>
@@ -1064,7 +422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1928</v>
       </c>
@@ -1075,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1929</v>
       </c>
@@ -1086,7 +444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1930</v>
       </c>
@@ -1094,21 +452,21 @@
         <v>4.37</v>
       </c>
       <c r="C7">
-        <v>3.748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>3.7479999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1931</v>
       </c>
       <c r="B8">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C8">
-        <v>3.808</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3.8079999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1932</v>
       </c>
@@ -1116,10 +474,10 @@
         <v>3.66</v>
       </c>
       <c r="C9">
-        <v>3.928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>3.9279999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1933</v>
       </c>
@@ -1127,43 +485,43 @@
         <v>4.29</v>
       </c>
       <c r="C10">
-        <v>3.908</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>3.9079999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1934</v>
       </c>
       <c r="B11">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="C11">
-        <v>4.006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>4.0060000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1935</v>
       </c>
       <c r="B12">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="C12">
-        <v>4.162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>4.1619999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1936</v>
       </c>
       <c r="B13">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C13">
-        <v>4.158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>4.1579999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1937</v>
       </c>
@@ -1171,10 +529,10 @@
         <v>4.53</v>
       </c>
       <c r="C14">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>4.1499999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1938</v>
       </c>
@@ -1182,21 +540,21 @@
         <v>4.78</v>
       </c>
       <c r="C15">
-        <v>4.324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>4.3239999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1939</v>
       </c>
       <c r="B16">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="C16">
-        <v>4.422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>4.4219999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1940</v>
       </c>
@@ -1204,10 +562,10 @@
         <v>3.74</v>
       </c>
       <c r="C17">
-        <v>4.482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>4.4820000000000011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1941</v>
       </c>
@@ -1215,10 +573,10 @@
         <v>3.41</v>
       </c>
       <c r="C18">
-        <v>4.36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>4.3600000000000012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1942</v>
       </c>
@@ -1226,10 +584,10 @@
         <v>3.43</v>
       </c>
       <c r="C19">
-        <v>4.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1943</v>
       </c>
@@ -1240,29 +598,29 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1944</v>
       </c>
       <c r="B21">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C21">
-        <v>3.922</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>3.9219999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1945</v>
       </c>
       <c r="B22">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C22">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>3.8299999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1946</v>
       </c>
@@ -1270,21 +628,21 @@
         <v>4.03</v>
       </c>
       <c r="C23">
-        <v>3.886</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>3.8860000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1947</v>
       </c>
       <c r="B24">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C24">
         <v>4.01</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1948</v>
       </c>
@@ -1295,7 +653,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1949</v>
       </c>
@@ -1303,32 +661,32 @@
         <v>4.25</v>
       </c>
       <c r="C26">
-        <v>4.052</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>4.0520000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1950</v>
       </c>
       <c r="B27">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="C27">
         <v>4.056</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1951</v>
       </c>
       <c r="B28">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="C28">
-        <v>4.198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>4.1980000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1952</v>
       </c>
@@ -1339,7 +697,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1953</v>
       </c>
@@ -1347,10 +705,10 @@
         <v>3.79</v>
       </c>
       <c r="C30">
-        <v>4.268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>4.2680000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1954</v>
       </c>
@@ -1358,10 +716,10 @@
         <v>4.75</v>
       </c>
       <c r="C31">
-        <v>4.276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>4.2760000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1955</v>
       </c>
@@ -1369,10 +727,10 @@
         <v>4.22</v>
       </c>
       <c r="C32">
-        <v>4.376</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>4.3760000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1956</v>
       </c>
@@ -1380,21 +738,21 @@
         <v>3.54</v>
       </c>
       <c r="C33">
-        <v>4.274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>4.2739999999999991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1957</v>
       </c>
       <c r="B34">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C34">
-        <v>4.094</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>4.0939999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1958</v>
       </c>
@@ -1405,7 +763,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1959</v>
       </c>
@@ -1413,10 +771,10 @@
         <v>4.37</v>
       </c>
       <c r="C36">
-        <v>4.044</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>4.0439999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1960</v>
       </c>
@@ -1427,18 +785,18 @@
         <v>3.968</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1961</v>
       </c>
       <c r="B38">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C38">
-        <v>3.998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>3.9980000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1962</v>
       </c>
@@ -1446,10 +804,10 @@
         <v>4.05</v>
       </c>
       <c r="C39">
-        <v>4.11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>4.1099999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1963</v>
       </c>
@@ -1457,10 +815,10 @@
         <v>3.41</v>
       </c>
       <c r="C40">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>4.1000000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1964</v>
       </c>
@@ -1468,10 +826,10 @@
         <v>4.08</v>
       </c>
       <c r="C41">
-        <v>4.06</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>4.0600000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1965</v>
       </c>
@@ -1479,10 +837,10 @@
         <v>3.79</v>
       </c>
       <c r="C42">
-        <v>4.002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>4.0019999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1966</v>
       </c>
@@ -1490,10 +848,10 @@
         <v>2.83</v>
       </c>
       <c r="C43">
-        <v>3.886</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>3.8860000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1967</v>
       </c>
@@ -1501,10 +859,10 @@
         <v>3.84</v>
       </c>
       <c r="C44">
-        <v>3.632</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>3.6319999999999992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1968</v>
       </c>
@@ -1512,10 +870,10 @@
         <v>3.61</v>
       </c>
       <c r="C45">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>3.5900000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1969</v>
       </c>
@@ -1526,7 +884,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1970</v>
       </c>
@@ -1537,7 +895,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1971</v>
       </c>
@@ -1545,10 +903,10 @@
         <v>3.52</v>
       </c>
       <c r="C48">
-        <v>3.614</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>3.6139999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1972</v>
       </c>
@@ -1556,10 +914,10 @@
         <v>4.05</v>
       </c>
       <c r="C49">
-        <v>3.752</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>3.7519999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1973</v>
       </c>
@@ -1567,10 +925,10 @@
         <v>4.38</v>
       </c>
       <c r="C50">
-        <v>3.794</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>3.7939999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1974</v>
       </c>
@@ -1578,32 +936,32 @@
         <v>3.98</v>
       </c>
       <c r="C51">
-        <v>3.948</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>3.9479999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1975</v>
       </c>
       <c r="B52">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="C52">
-        <v>4.018</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>4.0179999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1976</v>
       </c>
       <c r="B53">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="C53">
-        <v>4.064</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>4.0640000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1977</v>
       </c>
@@ -1611,10 +969,10 @@
         <v>3.58</v>
       </c>
       <c r="C54">
-        <v>4.182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>4.1820000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1978</v>
       </c>
@@ -1622,10 +980,10 @@
         <v>3.02</v>
       </c>
       <c r="C55">
-        <v>4.088</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>4.0879999999999992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1979</v>
       </c>
@@ -1633,10 +991,10 @@
         <v>2.89</v>
       </c>
       <c r="C56">
-        <v>3.816</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>3.8160000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1980</v>
       </c>
@@ -1644,10 +1002,10 @@
         <v>3.63</v>
       </c>
       <c r="C57">
-        <v>3.598</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>3.5979999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1981</v>
       </c>
@@ -1655,10 +1013,10 @@
         <v>3.03</v>
       </c>
       <c r="C58">
-        <v>3.446</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>3.4460000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1982</v>
       </c>
@@ -1666,10 +1024,10 @@
         <v>3.66</v>
       </c>
       <c r="C59">
-        <v>3.23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>3.2300000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1983</v>
       </c>
@@ -1677,10 +1035,10 @@
         <v>4.54</v>
       </c>
       <c r="C60">
-        <v>3.246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>3.2459999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1984</v>
       </c>
@@ -1691,7 +1049,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1985</v>
       </c>
@@ -1699,10 +1057,10 @@
         <v>3.68</v>
       </c>
       <c r="C62">
-        <v>3.788</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>3.7879999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1986</v>
       </c>
@@ -1710,10 +1068,10 @@
         <v>3.65</v>
       </c>
       <c r="C63">
-        <v>3.798</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>3.7980000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1987</v>
       </c>
@@ -1721,10 +1079,10 @@
         <v>3.43</v>
       </c>
       <c r="C64">
-        <v>3.922</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>3.9219999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1988</v>
       </c>
@@ -1732,21 +1090,21 @@
         <v>3.75</v>
       </c>
       <c r="C65">
-        <v>3.876</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>3.8760000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1989</v>
       </c>
       <c r="B66">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="C66">
         <v>3.718</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1990</v>
       </c>
@@ -1757,7 +1115,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1991</v>
       </c>
@@ -1768,18 +1126,18 @@
         <v>3.968</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1992</v>
       </c>
       <c r="B69">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="C69">
-        <v>4.14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>4.1400000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1993</v>
       </c>
@@ -1787,10 +1145,10 @@
         <v>4.05</v>
       </c>
       <c r="C70">
-        <v>4.366</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>4.3660000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1994</v>
       </c>
@@ -1798,10 +1156,10 @@
         <v>3.84</v>
       </c>
       <c r="C71">
-        <v>4.426</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>4.4260000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1995</v>
       </c>
@@ -1812,7 +1170,7 @@
         <v>4.306</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1996</v>
       </c>
@@ -1823,7 +1181,7 @@
         <v>4.258</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1997</v>
       </c>
@@ -1831,10 +1189,10 @@
         <v>3.55</v>
       </c>
       <c r="C74">
-        <v>4.106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1998</v>
       </c>
@@ -1842,21 +1200,21 @@
         <v>3.64</v>
       </c>
       <c r="C75">
-        <v>3.904</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>3.9039999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1999</v>
       </c>
       <c r="B76">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C76">
-        <v>3.822</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>3.8220000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2000</v>
       </c>
@@ -1867,18 +1225,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2001</v>
       </c>
       <c r="B78">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="C78">
         <v>3.96</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2002</v>
       </c>
@@ -1886,21 +1244,21 @@
         <v>4.42</v>
       </c>
       <c r="C79">
-        <v>4.106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2003</v>
       </c>
       <c r="B80">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="C80">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>4.2799999999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2004</v>
       </c>
@@ -1908,10 +1266,10 @@
         <v>4.79</v>
       </c>
       <c r="C81">
-        <v>4.382</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>4.3819999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2005</v>
       </c>
@@ -1919,10 +1277,10 @@
         <v>4.82</v>
       </c>
       <c r="C82">
-        <v>4.494</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>4.4939999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2006</v>
       </c>
@@ -1933,40 +1291,40 @@
         <v>4.532</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2007</v>
       </c>
       <c r="B84">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="C84">
-        <v>4.652</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>4.6519999999999992</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2008</v>
       </c>
       <c r="B85">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="C85">
-        <v>4.756</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>4.7560000000000011</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2009</v>
       </c>
       <c r="B86">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="C86">
-        <v>4.854</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>4.8540000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2010</v>
       </c>
@@ -1974,10 +1332,10 @@
         <v>4.75</v>
       </c>
       <c r="C87">
-        <v>4.834</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>4.8340000000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2011</v>
       </c>
@@ -1988,7 +1346,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2012</v>
       </c>
@@ -1996,10 +1354,10 @@
         <v>5.36</v>
       </c>
       <c r="C89">
-        <v>4.678</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>4.6779999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2013</v>
       </c>
@@ -2007,10 +1365,10 @@
         <v>4.87</v>
       </c>
       <c r="C90">
-        <v>4.762</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>4.7619999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2014</v>
       </c>
@@ -2018,10 +1376,10 @@
         <v>4.74</v>
       </c>
       <c r="C91">
-        <v>4.808</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>4.8080000000000007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2015</v>
       </c>
@@ -2029,10 +1387,10 @@
         <v>5</v>
       </c>
       <c r="C92">
-        <v>4.818</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>4.8180000000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2016</v>
       </c>
@@ -2040,10 +1398,10 @@
         <v>5.32</v>
       </c>
       <c r="C93">
-        <v>4.868</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>4.8680000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2017</v>
       </c>
@@ -2051,10 +1409,10 @@
         <v>5.15</v>
       </c>
       <c r="C94">
-        <v>5.058</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>5.0579999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2018</v>
       </c>
@@ -2065,7 +1423,7 @@
         <v>5.016</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2019</v>
       </c>
@@ -2073,23 +1431,22 @@
         <v>4.63</v>
       </c>
       <c r="C96">
-        <v>5.066</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>5.0660000000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2020</v>
       </c>
       <c r="B97">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="C97">
-        <v>5.044</v>
+        <v>5.0439999999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>